--- a/Xiomi1.xlsx
+++ b/Xiomi1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Xiomi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5904FB9C-ADEE-4B61-82B9-79F6139C9E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A192ADD-8BE6-497D-ADBD-DEFFB4211762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="236">
   <si>
     <t>S.no</t>
   </si>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
@@ -1817,7 +1822,9 @@
       <c r="G3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="28.8">
       <c r="A4" s="11">
